--- a/plots/avgowd_var.xlsx
+++ b/plots/avgowd_var.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasba/repos/experimentscripts/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91346D7B-D81A-CD4C-9D53-9D5B9957D78E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC95A051-2870-B440-89D6-A6113F667A33}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{E1EF51A4-F189-9E41-BE26-5B5FD9D5A974}"/>
   </bookViews>
@@ -16,6 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$1197</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$1197</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$1197</definedName>
     <definedName name="avgowd_var_out" localSheetId="0">Sheet1!$A$2:$C$1197</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,8 +34,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{16891E48-C4EF-CE4D-8E1D-9B448CC35414}" name="avgowd_var_out" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tobiasba/repos/experimentscripts/out/avgowd_var_out.csv" thousands="'" comma="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="avgowd_var_out" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/tobiasba/repos/experimentscripts/out/avgowd_var_out.csv" thousands="'" comma="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -50,7 +55,7 @@
     <t>OWD</t>
   </si>
   <si>
-    <t>Actual</t>
+    <t>Theoretical</t>
   </si>
 </sst>
 </file>
@@ -126,7 +131,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -139,9 +144,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>OWD Changing</a:t>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>One</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> Way Delay</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -158,7 +168,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -203,7 +213,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -7426,7 +7436,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Actual</c:v>
+                  <c:v>Theoretical</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14909,7 +14919,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -14941,12 +14951,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -15535,10 +15540,10 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15567,7 +15572,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="avgowd_var_out" connectionId="1" xr16:uid="{60E93FCB-6133-1B47-848E-B5150337852D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="avgowd_var_out" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15870,7 +15875,7 @@
   <dimension ref="A1:C1197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/plots/avgowd_var.xlsx
+++ b/plots/avgowd_var.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasba/repos/experimentscripts/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC95A051-2870-B440-89D6-A6113F667A33}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CAE3CE-98D8-EE4B-8B5C-1B80C5588FEB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{E1EF51A4-F189-9E41-BE26-5B5FD9D5A974}"/>
   </bookViews>
@@ -16,11 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$1197</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$1197</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$1197</definedName>
     <definedName name="avgowd_var_out" localSheetId="0">Sheet1!$A$2:$C$1197</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -55,7 +50,7 @@
     <t>OWD</t>
   </si>
   <si>
-    <t>Theoretical</t>
+    <t>Introduced</t>
   </si>
 </sst>
 </file>
@@ -7436,7 +7431,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Theoretical</c:v>
+                  <c:v>Introduced</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14690,7 +14685,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -14703,7 +14698,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>s</a:t>
                 </a:r>
               </a:p>
@@ -14722,7 +14717,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -14807,7 +14802,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -14820,7 +14815,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>ms</a:t>
                 </a:r>
               </a:p>
@@ -14839,7 +14834,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -15875,7 +15870,7 @@
   <dimension ref="A1:C1197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
